--- a/classification/droptc/sentence/bert-base-uncased/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3824770152568817</v>
+        <v>0.9566033482551575</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7936586141586304</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4961709976196289</v>
+        <v>0.6132151484489441</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.357048511505127</v>
+        <v>0.5719515681266785</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6652438044548035</v>
+        <v>0.9930863976478577</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3574265241622925</v>
+        <v>0.897152304649353</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5817186236381531</v>
+        <v>0.9896420836448669</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8574883341789246</v>
+        <v>0.9940797090530396</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.370585024356842</v>
+        <v>0.9896420836448669</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4514577984809875</v>
+        <v>0.9432670474052429</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5743659734725952</v>
+        <v>0.9678738117218018</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3595248460769653</v>
+        <v>0.9686868190765381</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7632731199264526</v>
+        <v>0.959688663482666</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6782949566841125</v>
+        <v>0.6680437326431274</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7380328178405762</v>
+        <v>0.9043956398963928</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9132885932922363</v>
+        <v>0.9685539603233337</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.887594997882843</v>
+        <v>0.6668433547019958</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8212425112724304</v>
+        <v>0.9936590790748596</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5212510228157043</v>
+        <v>0.929627001285553</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3481982350349426</v>
+        <v>0.984906017780304</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3242250680923462</v>
+        <v>0.9752475023269653</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4321870505809784</v>
+        <v>0.9655479192733765</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3868444859981537</v>
+        <v>0.9363456964492798</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7104398608207703</v>
+        <v>0.4861270189285278</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3574265241622925</v>
+        <v>0.3990871012210846</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6719433665275574</v>
+        <v>0.7951100468635559</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8588546514511108</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.617115318775177</v>
+        <v>0.7920522689819336</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7001961469650269</v>
+        <v>0.9473882913589478</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8331208229064941</v>
+        <v>0.9483461380004883</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9415286779403687</v>
+        <v>0.6431804895401001</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6815435886383057</v>
+        <v>0.5790145993232727</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.727854311466217</v>
+        <v>0.675797164440155</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7219997048377991</v>
+        <v>0.9370974898338318</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3696871101856232</v>
+        <v>0.9604629874229431</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6501018404960632</v>
+        <v>0.871124267578125</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8517739772796631</v>
+        <v>0.8591978549957275</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5033597350120544</v>
+        <v>0.8020529747009277</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6879060864448547</v>
+        <v>0.4218960404396057</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5229039192199707</v>
+        <v>0.9853686690330505</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.617115318775177</v>
+        <v>0.8099441528320312</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.431448757648468</v>
+        <v>0.6994330883026123</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3557891547679901</v>
+        <v>0.977068305015564</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6601725816726685</v>
+        <v>0.8327285051345825</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3335209488868713</v>
+        <v>0.8720954656600952</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7444561719894409</v>
+        <v>0.4330820441246033</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.738734245300293</v>
+        <v>0.9144483804702759</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7520973682403564</v>
+        <v>0.996757447719574</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3241163194179535</v>
+        <v>0.875203013420105</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7545984387397766</v>
+        <v>0.2836690843105316</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4813396334648132</v>
+        <v>0.9223384261131287</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4872709512710571</v>
+        <v>0.875203013420105</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.575036346912384</v>
+        <v>0.5502237677574158</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6678590774536133</v>
+        <v>0.9915974736213684</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7604532837867737</v>
+        <v>0.9986546039581299</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7078809142112732</v>
+        <v>0.9988364577293396</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.593230664730072</v>
+        <v>0.855223536491394</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5968354344367981</v>
+        <v>0.9125828742980957</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8468369245529175</v>
+        <v>0.9577056765556335</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.8941816687583923</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4586495161056519</v>
+        <v>0.9909438490867615</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8338268399238586</v>
+        <v>0.6460933685302734</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6493476629257202</v>
+        <v>0.3870030343532562</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7971438765525818</v>
+        <v>0.8574955463409424</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4472506940364838</v>
+        <v>0.8574955463409424</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6038661599159241</v>
+        <v>0.4951877892017365</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8981547355651855</v>
+        <v>0.8574955463409424</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5236226916313171</v>
+        <v>0.5826314091682434</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7261310815811157</v>
+        <v>0.9717801213264465</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7634634375572205</v>
+        <v>0.4608074426651001</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4610534906387329</v>
+        <v>0.9745004177093506</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4321870505809784</v>
+        <v>0.9749484062194824</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.44339519739151</v>
+        <v>0.8940439820289612</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4472506940364838</v>
+        <v>0.6184158325195312</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.9749484062194824</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.9493081569671631</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5928752422332764</v>
+        <v>0.9749484062194824</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4247418940067291</v>
+        <v>0.9891605973243713</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5286588072776794</v>
+        <v>0.9174916744232178</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4489003121852875</v>
+        <v>0.6594849228858948</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3116673231124878</v>
+        <v>0.9174916744232178</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9364710450172424</v>
+        <v>0.954448938369751</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7759062647819519</v>
+        <v>0.954448938369751</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4472506940364838</v>
+        <v>0.9924507737159729</v>
       </c>
     </row>
     <row r="86">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6801062226295471</v>
+        <v>0.7857105731964111</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7520973682403564</v>
+        <v>0.8367404341697693</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5505408644676208</v>
+        <v>0.8878654837608337</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5985945463180542</v>
+        <v>0.9854625463485718</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8139497637748718</v>
+        <v>0.9643685221672058</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6064375042915344</v>
+        <v>0.9685035347938538</v>
       </c>
     </row>
     <row r="92">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4247418940067291</v>
+        <v>0.9722743630409241</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7176029682159424</v>
+        <v>0.9775078892707825</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.419495165348053</v>
+        <v>0.9803137183189392</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6926903128623962</v>
+        <v>0.9745324850082397</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6427485942840576</v>
+        <v>0.5170577168464661</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.572084903717041</v>
+        <v>0.4215555787086487</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.985620379447937</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.649822473526001</v>
+        <v>0.3666331768035889</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5150744915008545</v>
+        <v>0.9486222863197327</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7425599098205566</v>
+        <v>0.9613875150680542</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8923540115356445</v>
+        <v>0.3272666335105896</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.9846545457839966</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7370392680168152</v>
+        <v>0.9498974680900574</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7914512157440186</v>
+        <v>0.944749116897583</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4665204584598541</v>
+        <v>0.5959898233413696</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5683652758598328</v>
+        <v>0.4930420815944672</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7548096776008606</v>
+        <v>0.5979198217391968</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7312314510345459</v>
+        <v>0.7196933031082153</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7392988801002502</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5914053916931152</v>
+        <v>0.5005864500999451</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3954741060733795</v>
+        <v>0.4764295220375061</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7875956296920776</v>
+        <v>0.9101158380508423</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9656484127044678</v>
+        <v>0.801172137260437</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.370585024356842</v>
+        <v>0.4763581454753876</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3201080560684204</v>
+        <v>0.8380500078201294</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3905263841152191</v>
+        <v>0.9488361477851868</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9000294208526611</v>
+        <v>0.4526752233505249</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7413693070411682</v>
+        <v>0.9276010394096375</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8482358455657959</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6489419341087341</v>
+        <v>0.9217736124992371</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7368809580802917</v>
+        <v>0.9918237328529358</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7169442176818848</v>
+        <v>0.9217736124992371</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6790169477462769</v>
+        <v>0.9918237328529358</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7553455829620361</v>
+        <v>0.9217736124992371</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6042778491973877</v>
+        <v>0.9986439347267151</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4714813828468323</v>
+        <v>0.6406940221786499</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5860459804534912</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8264939785003662</v>
+        <v>0.9604086875915527</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5904833078384399</v>
+        <v>0.9194446206092834</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8613095283508301</v>
+        <v>0.9925143122673035</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6306592226028442</v>
+        <v>0.4929401576519012</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8260471820831299</v>
+        <v>0.9940197467803955</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.617115318775177</v>
+        <v>0.487526535987854</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8681890964508057</v>
+        <v>0.8721094727516174</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.700822114944458</v>
+        <v>0.479457288980484</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.887594997882843</v>
+        <v>0.9962432384490967</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.402833491563797</v>
+        <v>0.952973484992981</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.68114173412323</v>
+        <v>0.9970418810844421</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5981202721595764</v>
+        <v>0.9606461524963379</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7975214123725891</v>
+        <v>0.8639522790908813</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7356417179107666</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5349178314208984</v>
+        <v>0.6301732659339905</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.497968852519989</v>
+        <v>0.9875031113624573</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.446289449930191</v>
+        <v>0.6301732659339905</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4533370137214661</v>
+        <v>0.9780663251876831</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6608253717422485</v>
+        <v>0.5826314091682434</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.320218414068222</v>
+        <v>0.9700840711593628</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6622561812400818</v>
+        <v>0.5707550048828125</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7016703486442566</v>
+        <v>0.3805901706218719</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8253501653671265</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4489003121852875</v>
+        <v>0.6060603260993958</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.896747350692749</v>
+        <v>0.9908837676048279</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8004224300384521</v>
+        <v>0.7656900882720947</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7899362444877625</v>
+        <v>0.9839196801185608</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7872248888015747</v>
+        <v>0.6803596019744873</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8844770789146423</v>
+        <v>0.9958082437515259</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6213797330856323</v>
+        <v>0.9377768635749817</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.917681872844696</v>
+        <v>0.9985370635986328</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4904224276542664</v>
+        <v>0.7918530702590942</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8531538844108582</v>
+        <v>0.9236739277839661</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.604948878288269</v>
+        <v>0.8684749007225037</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.4138108193874359</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8553645610809326</v>
+        <v>0.7653799057006836</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4321870505809784</v>
+        <v>0.8980685472488403</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.3116673231124878</v>
+        <v>0.9106106162071228</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8908708095550537</v>
+        <v>0.3990477621555328</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4489003121852875</v>
+        <v>0.435292512178421</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8379007577896118</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6900244355201721</v>
+        <v>0.3990477621555328</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8052740097045898</v>
+        <v>0.441991925239563</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3696871101856232</v>
+        <v>0.9954208731651306</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6243022084236145</v>
+        <v>0.9450573921203613</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7279282212257385</v>
+        <v>0.9621290564537048</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.926979660987854</v>
+        <v>0.9450573921203613</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.721510648727417</v>
+        <v>0.9450573921203613</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7125292420387268</v>
+        <v>0.9621290564537048</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3878018856048584</v>
+        <v>0.9973503351211548</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5336402058601379</v>
+        <v>0.9968618154525757</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7888619899749756</v>
+        <v>0.8451458215713501</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8714160323143005</v>
+        <v>0.5656135082244873</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.6019797325134277</v>
+        <v>0.9886238574981689</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.302583634853363</v>
+        <v>0.3633284866809845</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6283412575721741</v>
+        <v>0.9829142689704895</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8101544380187988</v>
+        <v>0.8885641694068909</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.3378060758113861</v>
+        <v>0.9035340547561646</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6064375042915344</v>
+        <v>0.9684163331985474</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.9794533848762512</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.2578260898590088</v>
+        <v>0.8210570216178894</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9415286779403687</v>
+        <v>0.9075927734375</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5066333413124084</v>
+        <v>0.5483273267745972</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4262206852436066</v>
+        <v>0.932094395160675</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7973703742027283</v>
+        <v>0.9825137257575989</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5722531080245972</v>
+        <v>0.7791451215744019</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.660480260848999</v>
+        <v>0.543010413646698</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6826075911521912</v>
+        <v>0.9916269779205322</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.9827619194984436</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.51149582862854</v>
+        <v>0.9260277152061462</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.8333524465560913</v>
+        <v>0.9930256605148315</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7888339757919312</v>
+        <v>0.5851237177848816</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7830464839935303</v>
+        <v>0.9860413670539856</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3589911162853241</v>
+        <v>0.9795535802841187</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.777280330657959</v>
+        <v>0.8363867402076721</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9087885618209839</v>
+        <v>0.3399274349212646</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6830112934112549</v>
+        <v>0.5453574061393738</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7480465769767761</v>
+        <v>0.9979689717292786</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9431949257850647</v>
+        <v>0.5054786801338196</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7146923542022705</v>
+        <v>0.9931321740150452</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6738568544387817</v>
+        <v>0.4668396413326263</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7527027130126953</v>
+        <v>0.9930944442749023</v>
       </c>
     </row>
   </sheetData>
